--- a/results/multilabel_powerset/41471ps/automl.xlsx
+++ b/results/multilabel_powerset/41471ps/automl.xlsx
@@ -859,12 +859,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.781 (0.726 Â± 0.022)</t>
+          <t>0.785 (0.712 Â± 0.026)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:19:58 (00:58:47 Â± 00:46:34)</t>
+          <t>00:09:31 (00:11:36 Â± 00:01:32)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">

--- a/results/multilabel_powerset/41471ps/automl.xlsx
+++ b/results/multilabel_powerset/41471ps/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.741 (0.726 Â± 0.016)</t>
+          <t>0.741 (0.726 ± 0.016)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:04:54 (00:10:22 Â± 00:06:53)</t>
+          <t>00:04:54 (00:10:22 ± 00:06:53)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:03 (00:00:09 Â± 00:00:04)</t>
+          <t>00:00:03 (00:00:09 ± 00:00:04)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.799 (0.742 Â± 0.026)</t>
+          <t>0.799 (0.742 ± 0.026)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:01:28 (00:03:38 Â± 00:01:36)</t>
+          <t>00:01:28 (00:03:38 ± 00:01:36)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.716 (0.679 Â± 0.024)</t>
+          <t>0.716 (0.679 ± 0.024)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:01:16 (00:01:40 Â± 00:00:21)</t>
+          <t>00:01:16 (00:01:40 ± 00:00:21)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.800 (0.625 Â± 0.151)</t>
+          <t>0.800 (0.625 ± 0.151)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:07 (00:05:13 Â± 00:00:04)</t>
+          <t>00:05:07 (00:05:13 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.796 (0.749 Â± 0.021)</t>
+          <t>0.796 (0.749 ± 0.021)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:00 Â± 00:00:02)</t>
+          <t>00:04:56 (00:05:00 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:05 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:05 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -655,17 +655,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.772 (0.723 Â± 0.024)</t>
+          <t>0.772 (0.723 ± 0.024)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:04 Â± 00:00:02)</t>
+          <t>00:05:01 (00:05:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -699,17 +699,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.607 (0.472 Â± 0.143)</t>
+          <t>0.607 (0.472 ± 0.143)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
+          <t>00:05:05 (00:05:06 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.773 (0.773 Â± 0.000)</t>
+          <t>0.773 (0.773 ± 0.000)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:02:04 (00:02:04 Â± 00:00:00)</t>
+          <t>00:02:04 (00:02:04 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -763,17 +763,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.299 (0.235 Â± 0.040)</t>
+          <t>0.299 (0.235 ± 0.040)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:19 (00:00:19 Â± 00:00:00)</t>
+          <t>00:00:19 (00:00:19 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -795,17 +795,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.749 (0.692 Â± 0.022)</t>
+          <t>0.749 (0.692 ± 0.022)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:02:08 (00:02:25 Â± 00:00:10)</t>
+          <t>00:02:08 (00:02:25 ± 00:00:10)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -827,17 +827,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.781 (0.726 Â± 0.030)</t>
+          <t>0.781 (0.726 ± 0.030)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:00:51 (00:04:15 Â± 00:01:13)</t>
+          <t>00:00:51 (00:04:15 ± 00:01:13)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -859,17 +859,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.785 (0.712 Â± 0.026)</t>
+          <t>0.785 (0.712 ± 0.026)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:09:31 (00:11:36 Â± 00:01:32)</t>
+          <t>00:09:31 (00:11:36 ± 00:01:32)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -891,17 +891,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.753 (0.704 Â± 0.024)</t>
+          <t>0.753 (0.704 ± 0.024)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:05:03 (00:05:56 Â± 00:00:35)</t>
+          <t>00:05:03 (00:05:56 ± 00:00:35)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
